--- a/homicide-ca-bar/homicide-ca-bar.xlsx
+++ b/homicide-ca-bar/homicide-ca-bar.xlsx
@@ -30,99 +30,99 @@
     <t>headline</t>
   </si>
   <si>
+    <t>Percent change in job totals by region, 2010-2014</t>
+  </si>
+  <si>
     <t>Chicago homicides by community area</t>
   </si>
   <si>
-    <t>Percent change in job totals by region, 2010-2014</t>
-  </si>
-  <si>
     <t>Chicago homicides by age group</t>
   </si>
   <si>
     <t>subhed</t>
   </si>
   <si>
+    <t>While Chicago has gained nearly 100,000 jobs since 2010, the gains haven't been evenly distributed by region.</t>
+  </si>
+  <si>
+    <t>While Rahm Emanuel made eliminating youth violence a priority, those under 25 still make up a large proportion of homicide deaths in the city.</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t>2014 numbers are preliminary. Where Workers Work utilizes administrative data collected under the Illinois Unemployment Insurance Act. The Act does not require employers to report their employment by work location. It should also be noted that specific community data may be impacted to a significant extent by employer reporting inconsistencies.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Data from Redye. Analysis by WBEZ</t>
+  </si>
+  <si>
+    <t>Illinois Department of Employment Security, Where Workers Work.</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Chris Hagan | WBEZ</t>
+  </si>
+  <si>
+    <t>hdr_state</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>hdr_something</t>
+  </si>
+  <si>
+    <t>Something</t>
+  </si>
+  <si>
+    <t>hdr_another_thing</t>
+  </si>
+  <si>
+    <t>Another Thing</t>
+  </si>
+  <si>
     <t>Homicides in Chicago are distributed unequally in the city. In 2014 the top 11 community areas had more homicides than the other 66 combined.</t>
   </si>
   <si>
-    <t>While Rahm Emanuel made eliminating youth violence a priority, those under 25 still make up a large proportion of homicide deaths in the city.</t>
-  </si>
-  <si>
-    <t>While Chicago has gained nearly 100,000 jobs since 2010, the gains haven't been evenly distributed by region.</t>
-  </si>
-  <si>
-    <t>footnote</t>
-  </si>
-  <si>
-    <t>2014 numbers are preliminary. Where Workers Work utilizes administrative data collected under the Illinois Unemployment Insurance Act. The Act does not require employers to report their employment by work location. It should also be noted that specific community data may be impacted to a significant extent by employer reporting inconsistencies.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Illinois Department of Employment Security, Where Workers Work.</t>
-  </si>
-  <si>
     <t>Data from Redeye. Analysis by WBEZ</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>Chris Hagan | WBEZ</t>
-  </si>
-  <si>
-    <t>Data from Redye. Analysis by WBEZ</t>
-  </si>
-  <si>
-    <t>hdr_state</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>hdr_something</t>
-  </si>
-  <si>
-    <t>Something</t>
-  </si>
-  <si>
-    <t>hdr_another_thing</t>
-  </si>
-  <si>
-    <t>Another Thing</t>
+    <t>Rahm Emanuel's "Rubber Stamp" council</t>
   </si>
   <si>
     <t>Chicago Public Schools ACT scores</t>
   </si>
   <si>
+    <t xml:space="preserve">CPS average ACT scores have been inching upward for a decade. </t>
+  </si>
+  <si>
+    <t>Dick Simpson and researchers at the University of Illinois at Chicago found that the majority of Chicago aldermen vote with Rahm Emanuel's views on issues more than three-quarters of the time.</t>
+  </si>
+  <si>
+    <t>*Multiple aldermen served during this time period. The most recent is listed.</t>
+  </si>
+  <si>
+    <t>Chicago Public Schools</t>
+  </si>
+  <si>
+    <t>"Rahm Emanuel’s Rubber Stamp City Council": Beyza Buyuker, Melissa Mouritsen, Dick Simpson: University of Illinois at Chicago</t>
+  </si>
+  <si>
     <t>Homicides per 100,000 inhabitants</t>
   </si>
   <si>
-    <t>Rahm Emanuel's "Rubber Stamp" council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPS average ACT scores have been inching upward for a decade. </t>
-  </si>
-  <si>
     <t>While Chicago has experienced its lowest rate of homicides since the 1960s, the big drops in violent crime came between 1992 and 2004, mirroring the national trend.</t>
   </si>
   <si>
-    <t>Dick Simpson and researchers at the University of Illinois at Chicago found that the majority of Chicago aldermen vote with Rahm Emanuel's views on issues more than three-quarters of the time.</t>
-  </si>
-  <si>
-    <t>*Multiple aldermen served during this time period. The most recent is listed.</t>
-  </si>
-  <si>
     <t>Andrew V. Papachristos, Institution for Social and Policy Studies, Yale University.</t>
   </si>
   <si>
-    <t>Chicago Public Schools</t>
-  </si>
-  <si>
-    <t>"Rahm Emanuel’s Rubber Stamp City Council": Beyza Buyuker, Melissa Mouritsen, Dick Simpson: University of Illinois at Chicago</t>
-  </si>
-  <si>
     <t>Chicago Public Schools enrollment</t>
   </si>
   <si>
@@ -132,22 +132,22 @@
     <t xml:space="preserve">Chicago Public Schools </t>
   </si>
   <si>
+    <t>Chicago unemployment rate by race, 2013</t>
+  </si>
+  <si>
+    <t>While unemployment rates have dropped in Chicago during Rahm Emanuel's term, African Americans continue to have a drastically higher rate than other groups.</t>
+  </si>
+  <si>
     <t>Chicago Public Schools graduation rates</t>
   </si>
   <si>
+    <t>U.S. Census Bureau, American Community Survey, 2013</t>
+  </si>
+  <si>
     <t>The graduation rate has accelerated under Emanuel, in part, because of a major expansion in the number of schools serving dropouts.</t>
   </si>
   <si>
     <t>NPR</t>
-  </si>
-  <si>
-    <t>Chicago unemployment rate by race, 2013</t>
-  </si>
-  <si>
-    <t>While unemployment rates have dropped in Chicago during Rahm Emanuel's term, African Americans continue to have a drastically higher rate than other groups.</t>
-  </si>
-  <si>
-    <t>U.S. Census Bureau, American Community Survey, 2013</t>
   </si>
 </sst>
 </file>
@@ -270,6 +270,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -301,52 +304,52 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -356,6 +359,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -374,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -382,20 +388,20 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -403,38 +409,38 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -444,6 +450,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -470,57 +479,57 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -530,6 +539,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -548,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -556,57 +568,57 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -616,6 +628,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -642,59 +657,59 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -704,6 +719,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -730,57 +748,57 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +808,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -821,50 +842,50 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -874,6 +895,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -900,57 +924,57 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +984,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -986,57 +1013,57 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
